--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1502,28 +1502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.43215503245135</v>
+        <v>86.26112344161272</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.52716117831582</v>
+        <v>118.026274664949</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.98281456763885</v>
+        <v>106.7620126618738</v>
       </c>
       <c r="AD2" t="n">
-        <v>65432.15503245135</v>
+        <v>86261.12344161273</v>
       </c>
       <c r="AE2" t="n">
-        <v>89527.16117831582</v>
+        <v>118026.274664949</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.234403283418729e-06</v>
+        <v>8.849018461825221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.869598765432098</v>
       </c>
       <c r="AH2" t="n">
-        <v>80982.81456763885</v>
+        <v>106762.0126618738</v>
       </c>
     </row>
     <row r="3">
@@ -1608,28 +1608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.7677899714383</v>
+        <v>83.59675838059967</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.8816593583489</v>
+        <v>114.3807728449821</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.68523432487449</v>
+        <v>103.4644324191094</v>
       </c>
       <c r="AD3" t="n">
-        <v>62767.78997143829</v>
+        <v>83596.75838059967</v>
       </c>
       <c r="AE3" t="n">
-        <v>85881.6593583489</v>
+        <v>114380.7728449821</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.530501988237878e-06</v>
+        <v>9.34958801361487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.665123456790124</v>
       </c>
       <c r="AH3" t="n">
-        <v>77685.23432487449</v>
+        <v>103464.4324191094</v>
       </c>
     </row>
   </sheetData>
@@ -1905,28 +1905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.775951922933</v>
+        <v>80.95708761065299</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.15633866669243</v>
+        <v>110.7690588434874</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.22001441501723</v>
+        <v>100.1974153328438</v>
       </c>
       <c r="AD2" t="n">
-        <v>60775.951922933</v>
+        <v>80957.08761065299</v>
       </c>
       <c r="AE2" t="n">
-        <v>83156.33866669243</v>
+        <v>110769.0588434874</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.608058490984626e-06</v>
+        <v>9.711985264126388e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.738425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>75220.01441501723</v>
+        <v>100197.4153328438</v>
       </c>
     </row>
   </sheetData>
@@ -2202,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.90707416367042</v>
+        <v>85.05255404308032</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.54521060248848</v>
+        <v>116.3726566955589</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.80826418711928</v>
+        <v>105.2662136706144</v>
       </c>
       <c r="AD2" t="n">
-        <v>66907.07416367042</v>
+        <v>85052.55404308032</v>
       </c>
       <c r="AE2" t="n">
-        <v>91545.21060248849</v>
+        <v>116372.6566955589</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.379639750273022e-06</v>
+        <v>1.017943605068567e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.347993827160494</v>
       </c>
       <c r="AH2" t="n">
-        <v>82808.26418711928</v>
+        <v>105266.2136706145</v>
       </c>
     </row>
   </sheetData>
@@ -2499,28 +2499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.01665913347437</v>
+        <v>86.33586976124813</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.38095254075053</v>
+        <v>118.128545877049</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.80494584214632</v>
+        <v>106.8545232530296</v>
       </c>
       <c r="AD2" t="n">
-        <v>58016.65913347437</v>
+        <v>86335.86976124813</v>
       </c>
       <c r="AE2" t="n">
-        <v>79380.95254075053</v>
+        <v>118128.545877049</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.621235426210117e-06</v>
+        <v>1.02406701559874e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.981481481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>71804.94584214632</v>
+        <v>106854.5232530296</v>
       </c>
     </row>
   </sheetData>
@@ -2796,28 +2796,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.85268043239455</v>
+        <v>94.17528947902453</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.83903081656052</v>
+        <v>128.8547857856943</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.97860401584875</v>
+        <v>116.5570658791694</v>
       </c>
       <c r="AD2" t="n">
-        <v>67852.68043239455</v>
+        <v>94175.28947902453</v>
       </c>
       <c r="AE2" t="n">
-        <v>92839.03081656052</v>
+        <v>128854.7857856943</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.967463967141861e-06</v>
+        <v>9.734628856384702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.891975308641975</v>
       </c>
       <c r="AH2" t="n">
-        <v>83978.60401584874</v>
+        <v>116557.0658791694</v>
       </c>
     </row>
   </sheetData>
@@ -3093,28 +3093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.20284520343048</v>
+        <v>81.55425818346237</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.74043288627115</v>
+        <v>111.5861339665111</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.74836350206094</v>
+        <v>100.9365099528985</v>
       </c>
       <c r="AD2" t="n">
-        <v>61202.84520343049</v>
+        <v>81554.25818346237</v>
       </c>
       <c r="AE2" t="n">
-        <v>83740.43288627116</v>
+        <v>111586.1339665111</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.599570395077093e-06</v>
+        <v>9.633955633623719e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.71141975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>75748.36350206094</v>
+        <v>100936.5099528985</v>
       </c>
     </row>
     <row r="3">
@@ -3199,28 +3199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.31470590986633</v>
+        <v>81.66611888989823</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.89348563976269</v>
+        <v>111.7391867200026</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.88680911557016</v>
+        <v>101.0749555664078</v>
       </c>
       <c r="AD3" t="n">
-        <v>61314.70590986633</v>
+        <v>81666.11888989822</v>
       </c>
       <c r="AE3" t="n">
-        <v>83893.48563976269</v>
+        <v>111739.1867200026</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.598116674433377e-06</v>
+        <v>9.631454534575556e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.71141975308642</v>
       </c>
       <c r="AH3" t="n">
-        <v>75886.80911557015</v>
+        <v>101074.9555664078</v>
       </c>
     </row>
   </sheetData>
@@ -3496,28 +3496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.15226876207065</v>
+        <v>103.8341030102419</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.9313819549844</v>
+        <v>142.0704005758785</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.72600094036505</v>
+        <v>128.5114009420145</v>
       </c>
       <c r="AD2" t="n">
-        <v>78152.26876207064</v>
+        <v>103834.1030102419</v>
       </c>
       <c r="AE2" t="n">
-        <v>106931.3819549844</v>
+        <v>142070.4005758785</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.616328444389614e-06</v>
+        <v>9.254170717867677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.385802469135803</v>
       </c>
       <c r="AH2" t="n">
-        <v>96726.00094036505</v>
+        <v>128511.4009420145</v>
       </c>
     </row>
   </sheetData>
@@ -3793,28 +3793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.20925386577004</v>
+        <v>78.83775735439967</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.01271326704295</v>
+        <v>107.8692976886309</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.28097361491248</v>
+        <v>97.57440331276558</v>
       </c>
       <c r="AD2" t="n">
-        <v>59209.25386577004</v>
+        <v>78837.75735439967</v>
       </c>
       <c r="AE2" t="n">
-        <v>81012.71326704296</v>
+        <v>107869.2976886309</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.667205022268639e-06</v>
+        <v>1.00370412068739e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.811728395061729</v>
       </c>
       <c r="AH2" t="n">
-        <v>73280.97361491248</v>
+        <v>97574.40331276559</v>
       </c>
     </row>
   </sheetData>
@@ -4090,28 +4090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.31973526697725</v>
+        <v>80.32411865462825</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.53212291115572</v>
+        <v>109.9030027932352</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.65537293509641</v>
+        <v>99.41401445651016</v>
       </c>
       <c r="AD2" t="n">
-        <v>60319.73526697725</v>
+        <v>80324.11865462826</v>
       </c>
       <c r="AE2" t="n">
-        <v>82532.12291115572</v>
+        <v>109903.0027932352</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.624085958431801e-06</v>
+        <v>9.807914820793928e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.761574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>74655.37293509641</v>
+        <v>99414.01445651017</v>
       </c>
     </row>
   </sheetData>
@@ -4387,28 +4387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.34151483402622</v>
+        <v>84.01636548172466</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.66665502629587</v>
+        <v>114.9548977924998</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.39531110802119</v>
+        <v>103.9837636874257</v>
       </c>
       <c r="AD2" t="n">
-        <v>63341.51483402622</v>
+        <v>84016.36548172466</v>
       </c>
       <c r="AE2" t="n">
-        <v>86666.65502629588</v>
+        <v>114954.8977924998</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.416745347680607e-06</v>
+        <v>9.208108088790699e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.769290123456789</v>
       </c>
       <c r="AH2" t="n">
-        <v>78395.3111080212</v>
+        <v>103983.7636874257</v>
       </c>
     </row>
     <row r="3">
@@ -4493,28 +4493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.33751805246147</v>
+        <v>83.0123687001599</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.29294233654772</v>
+        <v>113.5811851027516</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.1527036293643</v>
+        <v>102.7411562087688</v>
       </c>
       <c r="AD3" t="n">
-        <v>62337.51805246147</v>
+        <v>83012.3687001599</v>
       </c>
       <c r="AE3" t="n">
-        <v>85292.94233654773</v>
+        <v>113581.1851027516</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.551367261043829e-06</v>
+        <v>9.436956419255258e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.680555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>77152.7036293643</v>
+        <v>102741.1562087688</v>
       </c>
     </row>
   </sheetData>
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.34231071012179</v>
+        <v>77.55860343242951</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.82652339465292</v>
+        <v>106.1191028603039</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.20799203911503</v>
+        <v>95.99124462243974</v>
       </c>
       <c r="AD2" t="n">
-        <v>58342.31071012179</v>
+        <v>77558.6034324295</v>
       </c>
       <c r="AE2" t="n">
-        <v>79826.52339465292</v>
+        <v>106119.1028603039</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.656090349923248e-06</v>
+        <v>1.019926935780661e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.908179012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>72207.99203911502</v>
+        <v>95991.24462243974</v>
       </c>
     </row>
   </sheetData>
@@ -5087,28 +5087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.02763493330337</v>
+        <v>85.44582458623503</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.71016716626598</v>
+        <v>116.9107468025748</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.95747752796788</v>
+        <v>105.7529492130311</v>
       </c>
       <c r="AD2" t="n">
-        <v>67027.63493330337</v>
+        <v>85445.82458623503</v>
       </c>
       <c r="AE2" t="n">
-        <v>91710.16716626598</v>
+        <v>116910.7468025748</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.491350318824897e-06</v>
+        <v>1.024510442467663e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.189814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>82957.47752796789</v>
+        <v>105752.9492130311</v>
       </c>
     </row>
   </sheetData>
@@ -8013,28 +8013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.20092632320234</v>
+        <v>85.21991247075911</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.9472720910022</v>
+        <v>116.6016438796417</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.17195349146621</v>
+        <v>105.4733466392339</v>
       </c>
       <c r="AD2" t="n">
-        <v>67200.92632320234</v>
+        <v>85219.91247075911</v>
       </c>
       <c r="AE2" t="n">
-        <v>91947.2720910022</v>
+        <v>116601.6438796417</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.201348404471661e-06</v>
+        <v>1.000238586656304e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.575617283950617</v>
       </c>
       <c r="AH2" t="n">
-        <v>83171.95349146621</v>
+        <v>105473.3466392339</v>
       </c>
     </row>
   </sheetData>
@@ -8310,28 +8310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.79357238356377</v>
+        <v>114.9145212878508</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.8595271479726</v>
+        <v>157.2311176968496</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.1339863114317</v>
+        <v>142.2252004991651</v>
       </c>
       <c r="AD2" t="n">
-        <v>89793.57238356378</v>
+        <v>114914.5212878508</v>
       </c>
       <c r="AE2" t="n">
-        <v>122859.5271479726</v>
+        <v>157231.1176968496</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.086013744999412e-06</v>
+        <v>8.427809177514625e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.253858024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>111133.9863114317</v>
+        <v>142225.2004991651</v>
       </c>
     </row>
   </sheetData>
@@ -8607,28 +8607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.62623072977353</v>
+        <v>79.44668267014804</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.58323940809318</v>
+        <v>108.7024561695264</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.79704954179952</v>
+        <v>98.32804631758992</v>
       </c>
       <c r="AD2" t="n">
-        <v>59626.23072977353</v>
+        <v>79446.68267014803</v>
       </c>
       <c r="AE2" t="n">
-        <v>81583.23940809318</v>
+        <v>108702.4561695264</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.665551340974259e-06</v>
+        <v>9.954150212693102e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.773148148148147</v>
       </c>
       <c r="AH2" t="n">
-        <v>73797.04954179953</v>
+        <v>98328.04631758992</v>
       </c>
     </row>
   </sheetData>
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.84116029850819</v>
+        <v>82.35697384333903</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.61380375983057</v>
+        <v>112.6844449456693</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.53838108523185</v>
+        <v>101.9299996736954</v>
       </c>
       <c r="AD2" t="n">
-        <v>61841.16029850819</v>
+        <v>82356.97384333903</v>
       </c>
       <c r="AE2" t="n">
-        <v>84613.80375983057</v>
+        <v>112684.4449456693</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.560124141834413e-06</v>
+        <v>9.507192648983081e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.703703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>76538.38108523184</v>
+        <v>101929.9996736954</v>
       </c>
     </row>
     <row r="3">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.67464505073885</v>
+        <v>82.19045859556968</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.3859702516984</v>
+        <v>112.4566114375371</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.33229168734938</v>
+        <v>101.723910275813</v>
       </c>
       <c r="AD3" t="n">
-        <v>61674.64505073884</v>
+        <v>82190.45859556968</v>
       </c>
       <c r="AE3" t="n">
-        <v>84385.9702516984</v>
+        <v>112456.6114375372</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.593112090834583e-06</v>
+        <v>9.563598365517311e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.680555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>76332.29168734938</v>
+        <v>101723.910275813</v>
       </c>
     </row>
   </sheetData>
@@ -9307,28 +9307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.8016838646733</v>
+        <v>146.2681463856412</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.7084844395367</v>
+        <v>200.1305307799412</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.8478852229005</v>
+        <v>181.0303538073245</v>
       </c>
       <c r="AD2" t="n">
-        <v>113801.6838646733</v>
+        <v>146268.1463856412</v>
       </c>
       <c r="AE2" t="n">
-        <v>155708.4844395367</v>
+        <v>200130.5307799412</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.243884610833789e-06</v>
+        <v>6.953138823326504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.155864197530866</v>
       </c>
       <c r="AH2" t="n">
-        <v>140847.8852229005</v>
+        <v>181030.3538073245</v>
       </c>
     </row>
   </sheetData>
@@ -9604,28 +9604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.30055096793917</v>
+        <v>85.97178757207713</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.08358292506018</v>
+        <v>117.6303925636529</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.29525501083521</v>
+        <v>106.4039129927013</v>
       </c>
       <c r="AD2" t="n">
-        <v>67300.55096793917</v>
+        <v>85971.78757207713</v>
       </c>
       <c r="AE2" t="n">
-        <v>92083.58292506018</v>
+        <v>117630.3925636529</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.563099741408958e-06</v>
+        <v>1.024963595960066e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.077932098765433</v>
       </c>
       <c r="AH2" t="n">
-        <v>83295.2550108352</v>
+        <v>106403.9129927013</v>
       </c>
     </row>
   </sheetData>
@@ -9901,28 +9901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.77501581340517</v>
+        <v>78.20254429520966</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.41856960656683</v>
+        <v>107.0001711574252</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.74353419150613</v>
+        <v>96.78822499787108</v>
       </c>
       <c r="AD2" t="n">
-        <v>58775.01581340517</v>
+        <v>78202.54429520966</v>
       </c>
       <c r="AE2" t="n">
-        <v>80418.56960656683</v>
+        <v>107000.1711574252</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.658430657837117e-06</v>
+        <v>1.010837342768585e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.858024691358025</v>
       </c>
       <c r="AH2" t="n">
-        <v>72743.53419150613</v>
+        <v>96788.22499787109</v>
       </c>
     </row>
   </sheetData>
